--- a/aws/aws_networking_cost_calculator.xlsx
+++ b/aws/aws_networking_cost_calculator.xlsx
@@ -537,7 +537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -556,275 +556,197 @@
     <row r="1" ht="18.75" customHeight="1" s="9">
       <c r="A1" s="12" t="inlineStr">
         <is>
-          <t>AWS Base Network Cost Calculator</t>
+          <t>AWS Base Network Data Transfer Costs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>(Within Region - Zone to Zone)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" s="9">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>FIXED MONTHLY COSTS</t>
-        </is>
-      </c>
+      <c r="A3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Component</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>Unit Rate ($/hr)</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Hours/Month</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>Formula</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>Monthly Cost ($)</t>
-        </is>
-      </c>
+          <t>DATA TRANSFER COSTS</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>NAT Gateway</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="C5" s="11" t="n">
-        <v>730</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11">
-        <f>B5*C5*D5</f>
-        <v/>
-      </c>
-      <c r="F5" s="4">
-        <f>B5*C5*D5</f>
-        <v/>
-      </c>
+          <t>Scenario</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>Rate ($/GB)</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>Data (GB)</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Formula</t>
+        </is>
+      </c>
+      <c r="E5" s="11" t="inlineStr">
+        <is>
+          <t>Monthly Cost ($)</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>Elastic IP (attached to NAT GW)</t>
+          <t>Same AZ (private IP)</t>
         </is>
       </c>
       <c r="B6" s="11" t="n">
         <v>0</v>
       </c>
       <c r="C6" s="11" t="n">
-        <v>730</v>
-      </c>
-      <c r="D6" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D6" s="3">
+        <f>B6*C6</f>
+        <v/>
+      </c>
       <c r="E6" s="11">
-        <f>B6*C6*D6</f>
-        <v/>
-      </c>
-      <c r="F6" s="4">
-        <f>B6*C6*D6</f>
-        <v/>
-      </c>
+        <f>B6*C6</f>
+        <v/>
+      </c>
+      <c r="F6" s="4" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="inlineStr">
         <is>
-          <t>Subtotal (Per NAT Gateway)</t>
-        </is>
-      </c>
-      <c r="B7" s="14" t="n"/>
-      <c r="C7" s="14" t="n"/>
-      <c r="D7" s="14" t="n"/>
-      <c r="E7" s="15" t="n"/>
-      <c r="F7" s="5">
-        <f>SUM(F5:F6)</f>
-        <v/>
-      </c>
-    </row>
+          <t>Cross-AZ (same region) - per direction</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f>B7*C7*2</f>
+        <v/>
+      </c>
+      <c r="E7">
+        <f>B7*C7*2</f>
+        <v/>
+      </c>
+      <c r="F7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="E8">
+        <f>SUM(E6:E7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9"/>
     <row r="10" ht="15.75" customHeight="1" s="9">
       <c r="A10" s="8" t="inlineStr">
         <is>
-          <t>VARIABLE MONTHLY COSTS</t>
-        </is>
+          <t>TOTAL MONTHLY COST</t>
+        </is>
+      </c>
+      <c r="E10">
+        <f>E8</f>
+        <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Component</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>Rate ($/GB)</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>Data (GB)</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>Formula</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>Monthly Cost ($)</t>
-        </is>
-      </c>
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>NAT Gateway Data Processing</t>
-        </is>
-      </c>
-      <c r="B12" s="11" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11">
-        <f>B12*C12</f>
-        <v/>
-      </c>
-      <c r="E12" s="4">
-        <f>B12*C12*D5</f>
-        <v/>
-      </c>
+          <t>Notes:</t>
+        </is>
+      </c>
+      <c r="B12" s="11" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="11" t="n"/>
+      <c r="E12" s="4" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>Data Transfer Out (first 10TB)</t>
-        </is>
-      </c>
-      <c r="B13" s="11" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11">
-        <f>B13*C13</f>
-        <v/>
-      </c>
-      <c r="E13" s="4">
-        <f>B13*C13</f>
-        <v/>
-      </c>
+          <t>• Same AZ with private IP addresses is FREE</t>
+        </is>
+      </c>
+      <c r="B13" s="11" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="11" t="n"/>
+      <c r="E13" s="4" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>Cross-Region Data Transfer</t>
-        </is>
-      </c>
-      <c r="B14" s="11" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11">
-        <f>B14*C14</f>
-        <v/>
-      </c>
-      <c r="E14" s="4">
-        <f>B14*C14</f>
-        <v/>
-      </c>
+          <t>• Cross-AZ is $0.01/GB in EACH direction ($0.02/GB round-trip)</t>
+        </is>
+      </c>
+      <c r="B14" s="11" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="11" t="n"/>
+      <c r="E14" s="4" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="10" t="inlineStr">
         <is>
-          <t>Variable Subtotal</t>
-        </is>
-      </c>
-      <c r="B15" s="14" t="n"/>
-      <c r="C15" s="14" t="n"/>
-      <c r="D15" s="15" t="n"/>
-      <c r="E15" s="5">
-        <f>SUM(E12:E14)</f>
-        <v/>
+          <t>• These are base AWS data transfer costs (no special components)</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>• Green cells (Data GB) are inputs - modify as needed</t>
+        </is>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="9">
-      <c r="A17" s="13" t="inlineStr">
-        <is>
-          <t>TOTAL MONTHLY COST</t>
-        </is>
-      </c>
-      <c r="B17" s="14" t="n"/>
-      <c r="C17" s="14" t="n"/>
-      <c r="D17" s="14" t="n"/>
-      <c r="E17" s="15" t="n"/>
-      <c r="F17" s="6">
-        <f>F7+E15</f>
-        <v/>
-      </c>
-    </row>
+      <c r="A17" s="13" t="n"/>
+      <c r="F17" s="6" t="n"/>
+    </row>
+    <row r="18"/>
     <row r="19">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>Notes:</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>• Green cells are inputs - modify these values</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>• Prices are for us-east-1 region</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>• NAT Gateway Data Processing is multiplied by number of NAT Gateways</t>
-        </is>
-      </c>
-    </row>
+      <c r="A19" s="7" t="n"/>
+    </row>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A17:E17"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -835,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:E1"/>
@@ -857,158 +779,158 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>(Costs specific to VPC Peering component)</t>
+        </is>
+      </c>
+    </row>
     <row r="3" ht="15.75" customHeight="1" s="9">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>FIXED MONTHLY COSTS</t>
-        </is>
-      </c>
+      <c r="A3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Component</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>Rate</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>Formula</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>Monthly Cost ($)</t>
-        </is>
-      </c>
+          <t>FIXED COSTS</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>VPC Peering Connection</t>
+          <t>Component</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11">
-        <f>0*C5</f>
-        <v/>
-      </c>
-      <c r="E5" s="4">
-        <f>0*C5</f>
-        <v/>
+          <t>Rate</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr">
+        <is>
+          <t>Formula</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>Monthly Cost ($)</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="10" t="inlineStr">
         <is>
+          <t>VPC Peering Connection</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f>0*C6</f>
+        <v/>
+      </c>
+      <c r="E6" s="5">
+        <f>0*C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Fixed Subtotal</t>
         </is>
       </c>
-      <c r="E6" s="5">
-        <f>SUM(E5:E5)</f>
+      <c r="E7">
+        <f>SUM(E6:E6)</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="9">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>VARIABLE MONTHLY COSTS</t>
-        </is>
-      </c>
+      <c r="A8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Component</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>Rate ($/GB)</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>Data (GB)</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>Formula</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>Monthly Cost ($)</t>
-        </is>
-      </c>
+          <t>VARIABLE COSTS (VPC Peering specific)</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>01_same_region: Same AZ</t>
-        </is>
-      </c>
-      <c r="B10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
-        <f>B10*C10</f>
-        <v/>
-      </c>
-      <c r="E10" s="4">
-        <f>B10*C10</f>
-        <v/>
+          <t>Scenario</t>
+        </is>
+      </c>
+      <c r="B10" s="11" t="inlineStr">
+        <is>
+          <t>Peering Cost ($/GB)</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Data (GB)</t>
+        </is>
+      </c>
+      <c r="D10" s="11" t="inlineStr">
+        <is>
+          <t>Formula</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>Monthly Cost ($)</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>01_same_region: Cross-AZ</t>
+          <t>01_same_region: Same AZ</t>
         </is>
       </c>
       <c r="B11" s="11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="11">
-        <f>B11*C11*2</f>
+        <f>B11*C11</f>
         <v/>
       </c>
       <c r="E11" s="4">
-        <f>B11*C11*2</f>
+        <f>B11*C11</f>
         <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>02_different_region: Cross-Region</t>
+          <t>01_same_region: Cross-AZ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1025,68 +947,108 @@
     <row r="13">
       <c r="A13" s="10" t="inlineStr">
         <is>
+          <t>02_different_region: Cross-Region</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f>B13*C13</f>
+        <v/>
+      </c>
+      <c r="E13" s="5">
+        <f>B13*C13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" s="9">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Variable Subtotal</t>
         </is>
       </c>
-      <c r="E13" s="5">
-        <f>SUM(E10:E12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" s="9"/>
+      <c r="E14">
+        <f>SUM(E11:E13)</f>
+        <v/>
+      </c>
+    </row>
     <row r="15">
-      <c r="A15" s="13" t="inlineStr">
-        <is>
-          <t>TOTAL MONTHLY COST</t>
-        </is>
-      </c>
-      <c r="E15" s="6">
-        <f>E6+E13</f>
+      <c r="A15" s="13" t="n"/>
+      <c r="E15" s="6" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TOTAL VPC PEERING COST</t>
+        </is>
+      </c>
+      <c r="E16">
+        <f>E7+E14</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="inlineStr">
-        <is>
-          <t>Notes:</t>
-        </is>
-      </c>
+      <c r="A17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>• VPC Peering connection itself is FREE</t>
+          <t>Notes:</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>• 01_same_region: Same AZ data transfer is FREE</t>
+          <t>• VPC Peering connection itself is FREE</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>• 01_same_region: Cross-AZ is $0.01/GB each direction ($0.02 round-trip)</t>
+          <t>• 01_same_region: NO additional peering cost (base network rates apply)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>• 02_different_region: Cross-Region is $0.02/GB (varies $0.02-$0.05 by region pair)</t>
+          <t>• 02_different_region: $0.02/GB (varies $0.02-$0.05 by region pair)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>• Green cells are inputs - modify Data (GB) values</t>
-        </is>
-      </c>
-    </row>
+          <t>• For same-region peering, total cost = Base Network cost only</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>• For cross-region peering, total cost = Base Network + $0.02/GB peering cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>• Green cells (Data GB) are inputs - modify as needed</t>
+        </is>
+      </c>
+    </row>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1098,7 +1060,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
@@ -1117,6 +1079,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
@@ -1142,15 +1105,14 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Base Network</t>
-        </is>
-      </c>
-      <c r="B4" s="4">
-        <f>'Base Network'!F7</f>
-        <v/>
+          <t>Base Network (zone-to-zone)</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="C4" s="4">
-        <f>'Base Network'!E15</f>
+        <f>'Base Network'!E8</f>
         <v/>
       </c>
       <c r="D4" s="4">
@@ -1161,15 +1123,15 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>VPC Peering</t>
+          <t>VPC Peering (component cost)</t>
         </is>
       </c>
       <c r="B5" s="4">
-        <f>'VPC Peering'!E6</f>
+        <f>'VPC Peering'!E7</f>
         <v/>
       </c>
       <c r="C5" s="4">
-        <f>'VPC Peering'!E13</f>
+        <f>'VPC Peering'!E14</f>
         <v/>
       </c>
       <c r="D5" s="4">
@@ -1177,24 +1139,45 @@
         <v/>
       </c>
     </row>
+    <row r="6"/>
     <row r="7" ht="15.75" customHeight="1" s="9">
       <c r="A7" s="13" t="inlineStr">
         <is>
           <t>GRAND TOTAL</t>
         </is>
       </c>
-      <c r="B7" s="14" t="n"/>
-      <c r="C7" s="15" t="n"/>
       <c r="D7" s="6">
         <f>SUM(D4:D5)</f>
         <v/>
       </c>
     </row>
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Example Calculations:</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>• Same-region VPC Peering: Pay Base Network only</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>• Cross-region VPC Peering: Pay Base Network + VPC Peering cross-region cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:C7"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/aws/aws_networking_cost_calculator.xlsx
+++ b/aws/aws_networking_cost_calculator.xlsx
@@ -1,187 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c0be9037e15b1e3/Desktop/cloud-infra/aws/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="11_39E04C595717069FAF1B7C27AB6185549E1E5FF2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D16E7FB2-D71B-403C-A099-73E6BB866AF5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Base Network" sheetId="1" r:id="rId1"/>
-    <sheet name="VPC Peering" sheetId="2" r:id="rId2"/>
-    <sheet name="Summary" sheetId="3" r:id="rId3"/>
+    <sheet name="Base Network" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="VPC Peering" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Summary" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
-  <si>
-    <t>AWS Base Network Data Transfer Costs</t>
-  </si>
-  <si>
-    <t>(Within Region - Zone to Zone)</t>
-  </si>
-  <si>
-    <t>DATA TRANSFER COSTS</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>Rate ($/GB)</t>
-  </si>
-  <si>
-    <t>Data (GB)</t>
-  </si>
-  <si>
-    <t>Monthly Cost ($)</t>
-  </si>
-  <si>
-    <t>Same AZ (private IP)</t>
-  </si>
-  <si>
-    <t>TOTAL MONTHLY COST</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>• Same AZ with private IP addresses is FREE</t>
-  </si>
-  <si>
-    <t>• Cross-AZ is $0.01/GB in EACH direction ($0.02/GB round-trip)</t>
-  </si>
-  <si>
-    <t>• These are base AWS data transfer costs (no special components)</t>
-  </si>
-  <si>
-    <t>• Green cells (Data GB) are inputs - modify as needed</t>
-  </si>
-  <si>
-    <t>VPC Peering Cost Calculator</t>
-  </si>
-  <si>
-    <t>(Costs specific to VPC Peering component)</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Free</t>
-  </si>
-  <si>
-    <t>TOTAL VPC PEERING COST</t>
-  </si>
-  <si>
-    <t>• VPC Peering connection itself is FREE</t>
-  </si>
-  <si>
-    <t>• 01_same_region: NO additional peering cost (base network rates apply)</t>
-  </si>
-  <si>
-    <t>• 02_different_region: $0.02/GB (varies $0.02-$0.05 by region pair)</t>
-  </si>
-  <si>
-    <t>• For same-region peering, total cost = Base Network cost only</t>
-  </si>
-  <si>
-    <t>• For cross-region peering, total cost = Base Network + $0.02/GB peering cost</t>
-  </si>
-  <si>
-    <t>AWS Networking Cost Summary</t>
-  </si>
-  <si>
-    <t>Cross-AZ (same region)</t>
-  </si>
-  <si>
-    <t>Same Availability Zone</t>
-  </si>
-  <si>
-    <t>Cross Availability Zone</t>
-  </si>
-  <si>
-    <t>Cross-Region</t>
-  </si>
-  <si>
-    <t>Same-Region</t>
-  </si>
-  <si>
-    <t>VARIABLE COSTS (? Component)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="14"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="12"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="11"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="6">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -206,12 +89,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -400,78 +283,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -759,392 +739,620 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col width="35" customWidth="1" style="20" min="1" max="1"/>
+    <col width="18" customWidth="1" style="20" min="2" max="2"/>
+    <col width="14" customWidth="1" style="20" min="3" max="3"/>
+    <col width="20" customWidth="1" style="20" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="18.75" customHeight="1" s="20">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>AWS Base Network Data Transfer Costs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" s="20" thickBot="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>(Within Region - Zone to Zone)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="n"/>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="7" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>DATA TRANSFER COSTS</t>
+        </is>
+      </c>
+      <c r="B4" s="21" t="n"/>
+      <c r="C4" s="21" t="n"/>
+      <c r="D4" s="9" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>Scenario</t>
+        </is>
+      </c>
+      <c r="B5" s="21" t="inlineStr">
+        <is>
+          <t>Rate ($/GB)</t>
+        </is>
+      </c>
+      <c r="C5" s="27" t="inlineStr">
+        <is>
+          <t>Data (GB)</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>Monthly Cost ($)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" s="20" thickBot="1">
+      <c r="A6" s="12" t="inlineStr">
+        <is>
+          <t>Same AZ (private IP)</t>
+        </is>
+      </c>
+      <c r="B6" s="13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C6" s="28" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="27">
+      <c r="D6" s="14">
+        <f>B6*C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="16.5" customHeight="1" s="20" thickBot="1">
+      <c r="A7" s="33" t="inlineStr">
+        <is>
+          <t>Cross-AZ (same region) - round trip</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="9">
-        <f>B5*C5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="C6" s="28">
+      <c r="D7" s="18">
+        <f>B7*C7*2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Data Transfer Subtotal</t>
+        </is>
+      </c>
+      <c r="D8">
+        <f>SUM(D6:D7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9"/>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NAT GATEWAY COSTS (for internet access)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Component</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rate</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Monthly Cost ($)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="inlineStr">
+        <is>
+          <t>NAT Gateway Hourly</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C12" t="n">
+        <v>730</v>
+      </c>
+      <c r="D12">
+        <f>B12*C12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NAT Gateway Data Processing</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C13" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="14">
-        <f>B6*C6*2</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18">
-        <f>SUM(D5:D6)</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-    </row>
+      <c r="D13">
+        <f>B13*C13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Data Transfer Out to Internet (first 10TB)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f>B14*C14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>NAT Gateway Subtotal</t>
+        </is>
+      </c>
+      <c r="D15">
+        <f>SUM(D12:D14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16"/>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TOTAL MONTHLY COST</t>
+        </is>
+      </c>
+      <c r="D17">
+        <f>D8+D15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18"/>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Notes:</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>• Same AZ with private IP is FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>• Cross-AZ is $0.01/GB per direction ($0.02/GB round-trip)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>• NAT Gateway: $0.045/hr + $0.045/GB processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>• Data Transfer Out to Internet: $0.09/GB (first 10TB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>• Green cells are inputs - modify as needed</t>
+        </is>
+      </c>
+    </row>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A7:C7"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col width="35" customWidth="1" style="20" min="1" max="1"/>
+    <col width="18.5703125" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="12" customWidth="1" style="20" min="3" max="3"/>
+    <col width="18" customWidth="1" style="20" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="26">
+    <row r="1" ht="18.75" customHeight="1" s="20">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>VPC Peering Cost Calculator</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>(Costs SPECIFIC to VPC Peering component only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="20" thickBot="1"/>
+    <row r="4">
+      <c r="A4" s="19" t="inlineStr">
+        <is>
+          <t>VPC PEERING COMPONENT COSTS</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="7" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="21" t="inlineStr">
+        <is>
+          <t>Scenario</t>
+        </is>
+      </c>
+      <c r="B5" s="21" t="inlineStr">
+        <is>
+          <t>Peering Cost ($/GB)</t>
+        </is>
+      </c>
+      <c r="C5" s="21" t="inlineStr">
+        <is>
+          <t>Data (GB)</t>
+        </is>
+      </c>
+      <c r="D5" s="22" t="inlineStr">
+        <is>
+          <t>Monthly Cost ($)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="23" t="inlineStr">
+        <is>
+          <t>01_same_region: Same AZ</t>
+        </is>
+      </c>
+      <c r="B6" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="27" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="25">
-        <f>0*C6</f>
+        <f>B6*C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="20">
+      <c r="A7" s="23" t="inlineStr">
+        <is>
+          <t>01_same_region: Cross-AZ</t>
+        </is>
+      </c>
+      <c r="B7" s="21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="C7" s="26">
+      <c r="C7" s="27" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="25">
         <f>B7*C7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="20" thickBot="1">
+      <c r="A8" s="21" t="inlineStr">
+        <is>
+          <t>02_different_region: Cross-Region</t>
+        </is>
+      </c>
+      <c r="B8" s="21" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="C8" s="26">
+      <c r="C8" s="27" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="25">
         <f>B8*C8</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18">
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="16.5" customHeight="1" s="20" thickBot="1">
+      <c r="A9" s="33" t="n"/>
+      <c r="D9" s="18" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>TOTAL VPC PEERING COST</t>
+        </is>
+      </c>
+      <c r="D10">
         <f>SUM(D6:D8)</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-    </row>
+        <v/>
+      </c>
+    </row>
+    <row r="11"/>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Notes:</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>• VPC Peering connection itself is FREE (no hourly charge)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>• 01_same_region: $0 additional peering cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  (you only pay Base Network data transfer costs)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>• 02_different_region: $0.02/GB peering cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  (varies $0.02-$0.05 depending on region pair)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>• Green cells are inputs - modify as needed</t>
+        </is>
+      </c>
+    </row>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A9:C9"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="4" width="18" customWidth="1"/>
+    <col width="25" customWidth="1" style="20" min="1" max="1"/>
+    <col width="18" customWidth="1" style="20" min="2" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-    </row>
+    <row r="1" ht="18.75" customHeight="1" s="20">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>AWS Networking Cost Summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="29" t="inlineStr">
+        <is>
+          <t>Component</t>
+        </is>
+      </c>
+      <c r="B3" s="29" t="inlineStr">
+        <is>
+          <t>Fixed Cost ($)</t>
+        </is>
+      </c>
+      <c r="C3" s="29" t="inlineStr">
+        <is>
+          <t>Variable Cost ($)</t>
+        </is>
+      </c>
+      <c r="D3" s="29" t="inlineStr">
+        <is>
+          <t>Total Cost ($)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Base Network</t>
+        </is>
+      </c>
+      <c r="B4" s="30">
+        <f>'Base Network'!D15</f>
+        <v/>
+      </c>
+      <c r="C4" s="30">
+        <f>'Base Network'!D8</f>
+        <v/>
+      </c>
+      <c r="D4" s="30">
+        <f>B4+C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>VPC Peering</t>
+        </is>
+      </c>
+      <c r="B5" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="30">
+        <f>'VPC Peering'!D10</f>
+        <v/>
+      </c>
+      <c r="D5" s="30">
+        <f>B5+C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7" ht="15.75" customHeight="1" s="20">
+      <c r="A7" s="31" t="inlineStr">
+        <is>
+          <t>GRAND TOTAL</t>
+        </is>
+      </c>
+      <c r="D7" s="32">
+        <f>SUM(D4:D5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Cost Calculation Examples:</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>• Same-region peering (same AZ): Base Network only = $0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>• Same-region peering (cross-AZ): Base Network only = $0.02/GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>• Cross-region peering: Base Network + $0.02/GB peering</t>
+        </is>
+      </c>
+    </row>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
